--- a/frontend/tp21-main/public/exportFiles/zh/Secondary School (12–18 years  Year 7 – Year 12) Checklist - CHN.xlsx
+++ b/frontend/tp21-main/public/exportFiles/zh/Secondary School (12–18 years  Year 7 – Year 12) Checklist - CHN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beckii\Desktop\monash\5120 IE\Main project\data\journey\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beckii\Desktop\monash\5120 IE\Main project\data\journey\exportFiles\exportFiles\zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59752F83-D9A1-4AFE-AABE-1D40161F8B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B28D96-A6D4-4ED1-A2D6-B0EDBC482CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,22 +238,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -543,21 +543,21 @@
     <col min="2" max="2" width="60.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -615,16 +615,16 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -635,8 +635,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A11" xr:uid="{6D45B3E6-AD51-470E-871E-3D9EC02C46E9}">
-      <formula1>"Ready,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A11" xr:uid="{608A1E5B-603F-41AC-9F4D-6FF4AC58108F}">
+      <formula1>"√,"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
